--- a/biology/Zoologie/Idiops_crassus/Idiops_crassus.xlsx
+++ b/biology/Zoologie/Idiops_crassus/Idiops_crassus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idiops crassus est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idiops crassus est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Birmanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Birmanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simon, 1884  : Arachnides recueillis en Birmanie par M. le chevalier J. B. Comotto et appartenant au Musée civique d'histoire naturelle de Gènes. Annali del Museo civico di storia naturale Giacomo Doria, vol. 20, p. 325-372 (texte intégral).</t>
         </is>
